--- a/Projects/CCNAYARMX/Data/CCNayarTemplate2020v1.1.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplate2020v1.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -112,6 +112,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$K$86</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$K$86</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$K$86</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$86</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2951,29 +2952,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="E73" activeCellId="0" sqref="E73"/>
+      <selection pane="bottomLeft" activeCell="E73" activeCellId="1" sqref="G18:G19 E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="85.0526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.3117408906883"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.5991902834008"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="104.441295546559"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="43.17004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="203.202429149798"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="85.6963562753036"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.8137651821862"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="105.404858299595"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="205.024291497976"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.1012145748988"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.7125506072875"/>
   </cols>
@@ -5316,28 +5317,7 @@
       <c r="K86" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K86">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Tiene los empaques mandatorios de portafolio-Comidas? "/>
-        <filter val="Tiene Material Mostrador?"/>
-        <filter val="Tiene Copete y Cenefas-Plat. Dinamicas 2?"/>
-        <filter val="Tiene Copete y Cenefas-Hidratacion?"/>
-        <filter val="Tiene los empaques mandatorios de portafolio-Plat. Dinamicas 2?"/>
-        <filter val="Tiene las botellas necesarias por tamano-Comidas?"/>
-        <filter val="Tiene Copete y Cenefas-Comidas?"/>
-        <filter val="Tiene Totem CSD's 3?"/>
-        <filter val="Tiene los empaques mandatorios de portafolio-Hidratacion?"/>
-        <filter val="Tiene las botellas necesarias por tamano-Plat. Dinamicas 1?"/>
-        <filter val="Tiene las botellas necesarias por tamano-Hidratacion?"/>
-        <filter val="Tiene Copete y Cenefas-Plat. Dinamicas 1?"/>
-        <filter val="Tiene Totem CSD's 1?"/>
-        <filter val="Tiene las botellas necesarias por tamano-Plat. Dinamicas 2?"/>
-        <filter val="Tiene los empaques mandatorios de portafolio-Plat. Dinamicas 1? "/>
-        <filter val="Tiene Totem CSD's 2?"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K86"/>
   <mergeCells count="1">
     <mergeCell ref="I18:I24"/>
   </mergeCells>
@@ -5360,15 +5340,15 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="1" sqref="G18:G19 A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.17004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.0283400809717"/>
     <col collapsed="false" hidden="false" max="1017" min="5" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
   </cols>
@@ -5462,16 +5442,16 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="1" sqref="G18:G19 E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.17004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="33.7408906882591"/>
     <col collapsed="false" hidden="false" max="1019" min="7" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="8.78542510121457"/>
   </cols>
@@ -5755,20 +5735,20 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="G18:G19 D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="59" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="94.9068825910931"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="38.5627530364372"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="84.0890688259109"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="56.7732793522267"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="59" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="59" width="70.0566801619433"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="95.7651821862348"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="38.8825910931174"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="84.8380566801619"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="57.3076923076923"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="59" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="59" width="70.7004048582996"/>
     <col collapsed="false" hidden="false" max="1017" min="12" style="59" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
   </cols>
@@ -5893,20 +5873,20 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="G18:G19 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.9514170040486"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="119.331983805668"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="83.1255060728745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.4858299595142"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="120.400809716599"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="83.8744939271255"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="46.919028340081"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="47.2388663967611"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="38.8825910931174"/>
     <col collapsed="false" hidden="false" max="10" min="9" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="69.3076923076923"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="69.9473684210526"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -6096,21 +6076,21 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="1" sqref="G18:G19 E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.0971659919028"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.5222672064777"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="56.3441295546559"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="56.7732793522267"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="148.465587044534"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="118.473684210526"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="46.919028340081"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="149.753036437247"/>
+    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="119.546558704453"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="47.2388663967611"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="32.7773279352227"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.6761133603239"/>
@@ -6648,7 +6628,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="1" sqref="G18:G19 F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6772,19 +6752,19 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="G18:G19 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="65.5587044534413"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="66.0931174089069"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="69.3076923076923"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="59.663967611336"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="44.9919028340081"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="74.3400809716599"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="86.1255060728745"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="69.9473684210526"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="60.2024291497976"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="74.9838056680162"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="86.8744939271255"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -6901,15 +6881,15 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="G18:G19 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.17004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.5991902834008"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
@@ -6989,7 +6969,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="G18:G19 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6997,11 +6977,11 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="3" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="60.8421052631579"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.8866396761134"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="61.3805668016194"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.6356275303644"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="30.1012145748988"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -7196,20 +7176,20 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="G18:G19 C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.0971659919028"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="55.2753036437247"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.5991902834008"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.5587044534413"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="153.392712550607"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="55.7004048582996"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.919028340081"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.9878542510121"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="154.785425101215"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7610,20 +7590,20 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G18:G19 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.5627530364372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="80.9838056680162"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.8825910931174"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="81.7327935222672"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="104.441295546559"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.9919028340081"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="105.404858299595"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="104.441295546559"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="105.404858299595"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="30.5303643724696"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
@@ -7807,27 +7787,27 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="G18:G19 A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="130.14979757085"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="131.327935222672"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="100.906882591093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="83.1255060728745"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="121.578947368421"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="43.17004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="52.3805668016194"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="43.17004048583"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="36.2064777327935"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="56.3441295546559"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="70.8056680161943"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="101.761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="83.8744939271255"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="122.651821862348"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="56.7732793522267"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="71.3400809716599"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="38.8825910931174"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="36.5263157894737"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
@@ -8291,7 +8271,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="G18:G19 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8302,14 +8282,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="41.668016194332"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="43.17004048583"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.5627530364372"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="30.3157894736842"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="58.4858299595142"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="41.9919028340081"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="58.914979757085"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="30.5303643724696"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -8436,17 +8416,17 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="1" sqref="G18:G19 F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.9838056680162"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="120.400809716599"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.7327935222672"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="121.473684210526"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="94.9068825910931"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="176.105263157895"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="95.7651821862348"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="177.708502024292"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -8708,20 +8688,20 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+      <selection pane="topLeft" activeCell="J3" activeCellId="1" sqref="G18:G19 J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="59" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="42.7408906882591"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="94.9068825910931"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="86.7651821862348"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="59" width="118.473684210526"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="126.076923076923"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="43.17004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="95.7651821862348"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="87.5141700404858"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="59" width="119.546558704453"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="127.259109311741"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="59" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="59" width="36.2064777327935"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="71.4493927125506"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="59" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="72.0890688259109"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="59" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="59" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="59" width="13.3886639676113"/>
@@ -9297,26 +9277,26 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="G18:G19 D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.17004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.5951417004049"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="53.668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="87.9433198380567"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="46.919028340081"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="57.5222672064777"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.0931174089069"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="88.6963562753036"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.9919028340081"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.2388663967611"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="58.0566801619433"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="36.5263157894737"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="36.2064777327935"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.8866396761134"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="30.1012145748988"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="30.5303643724696"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="36.5263157894737"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1019" min="18" style="0" width="9.10526315789474"/>
@@ -9634,24 +9614,24 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="G18:G19 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="59.2348178137652"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="59.7732793522267"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.7773279352227"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.9919028340081"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.17004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="105.619433198381"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="106.582995951417"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="36.5263157894737"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="36.2064777327935"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="33.1012145748988"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -9850,20 +9830,20 @@
   </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.9919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="101.761133603239"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.3157894736842"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="100.048582995951"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="47.3481781376518"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="102.728744939271"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.5303643724696"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="100.906882591093"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="47.7732793522267"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -10320,7 +10300,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="71" t="n">
         <v>59</v>
       </c>
@@ -10338,7 +10318,7 @@
         <v>340</v>
       </c>
       <c r="G18" s="44" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H18" s="44" t="n">
         <v>1</v>
@@ -10347,7 +10327,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="71" t="n">
         <v>60</v>
       </c>
@@ -10365,7 +10345,7 @@
         <v>340</v>
       </c>
       <c r="G19" s="44" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H19" s="44" t="n">
         <v>1</v>

--- a/Projects/CCNAYARMX/Data/CCNayarTemplate2020v1.1.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplate2020v1.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -113,6 +113,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$K$86</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$K$86</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$86</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$86</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$86</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2054,7 +2056,7 @@
     <t xml:space="preserve">Coca_Cola_RV_500_ml</t>
   </si>
   <si>
-    <t xml:space="preserve">Refricalco_CC 500 ml VR</t>
+    <t xml:space="preserve">Cenefa CC 500VR</t>
   </si>
   <si>
     <t xml:space="preserve">Vive 100</t>
@@ -2078,7 +2080,7 @@
     <t xml:space="preserve">Valle_Pulpy_Sabila_NR_400_ml</t>
   </si>
   <si>
-    <t xml:space="preserve">TBD</t>
+    <t xml:space="preserve">Cenefa Valle Pulpy</t>
   </si>
 </sst>
 </file>
@@ -2277,7 +2279,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2318,6 +2320,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED7D31"/>
+        <bgColor rgb="FFFF8080"/>
       </patternFill>
     </fill>
   </fills>
@@ -2460,7 +2468,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2870,6 +2878,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2930,7 +2942,7 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFED7D31"/>
       <rgbColor rgb="FF595959"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -2960,21 +2972,21 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="E73" activeCellId="1" sqref="G18:G19 E73"/>
+      <selection pane="bottomLeft" activeCell="E73" activeCellId="1" sqref="H2:H13 E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="85.6963562753036"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="105.404858299595"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="43.5991902834008"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="205.024291497976"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="87.1943319838057"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.4898785425101"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.2429149797571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="107.226720647773"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="44.2388663967611"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="208.773279352227"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.5303643724696"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.7125506072875"/>
   </cols>
@@ -5340,15 +5352,15 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="1" sqref="G18:G19 A10"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="1" sqref="H2:H13 A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.5991902834008"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.2388663967611"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.4574898785425"/>
     <col collapsed="false" hidden="false" max="1017" min="5" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
   </cols>
@@ -5442,16 +5454,16 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="1" sqref="G18:G19 E18"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="1" sqref="H2:H13 E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.0283400809717"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.5991902834008"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.4574898785425"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.2388663967611"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="34.3846153846154"/>
     <col collapsed="false" hidden="false" max="1019" min="7" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="8.78542510121457"/>
   </cols>
@@ -5735,20 +5747,20 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="G18:G19 D3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="H2:H13 D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="59" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="95.7651821862348"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="38.8825910931174"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="84.8380566801619"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="57.3076923076923"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="59" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="35.0283400809717"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="59" width="70.7004048582996"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="97.4777327935223"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="39.5263157894737"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="86.336032388664"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="58.3805668016194"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="59" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="35.4574898785425"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="59" width="71.8785425101215"/>
     <col collapsed="false" hidden="false" max="1017" min="12" style="59" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
   </cols>
@@ -5873,20 +5885,20 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="G18:G19 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="H2:H13 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.4858299595142"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="120.400809716599"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="83.8744939271255"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.3441295546559"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="122.542510121458"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="85.3724696356275"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="47.2388663967611"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="38.8825910931174"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="47.9878542510121"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="39.5263157894737"/>
     <col collapsed="false" hidden="false" max="10" min="9" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="69.9473684210526"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="71.1255060728745"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -6076,21 +6088,21 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="1" sqref="G18:G19 E9"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="1" sqref="H2:H13 E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.3805668016194"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="56.7732793522267"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="57.8461538461538"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="149.753036437247"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="119.546558704453"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="47.2388663967611"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="152.429149797571"/>
+    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="121.793522267206"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="47.9878542510121"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="33.2064777327935"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.6761133603239"/>
@@ -6628,7 +6640,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="1" sqref="G18:G19 F12"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="1" sqref="H2:H13 F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6752,19 +6764,19 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="G18:G19 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="H2:H13 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="66.0931174089069"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="67.2712550607288"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="69.9473684210526"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="60.2024291497976"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="74.9838056680162"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="86.8744939271255"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="71.1255060728745"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="61.2712550607287"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="76.3765182186235"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="88.4817813765182"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -6881,15 +6893,15 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="G18:G19 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="H2:H13 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="44.2388663967611"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
@@ -6969,7 +6981,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="G18:G19 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="H2:H13 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6977,11 +6989,11 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="3" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="61.3805668016194"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.6356275303644"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="30.1012145748988"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="62.3441295546559"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -7175,21 +7187,21 @@
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="G18:G19 C4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.5222672064777"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="55.7004048582996"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.919028340081"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.9878542510121"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="154.785425101215"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="56.5587044534413"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="44.5627530364373"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="51.8461538461539"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="157.68016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7222,7 +7234,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="52" t="n">
         <v>76</v>
       </c>
@@ -7244,14 +7256,14 @@
       <c r="G2" s="36" t="n">
         <v>3</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="103" t="s">
         <v>427</v>
       </c>
       <c r="I2" s="36" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="52" t="n">
         <v>76</v>
       </c>
@@ -7280,7 +7292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="52" t="n">
         <v>76</v>
       </c>
@@ -7309,7 +7321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="52" t="n">
         <v>76</v>
       </c>
@@ -7331,14 +7343,14 @@
       <c r="G5" s="36" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="103" t="s">
         <v>435</v>
       </c>
       <c r="I5" s="36" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="52" t="n">
         <v>76</v>
       </c>
@@ -7360,14 +7372,14 @@
       <c r="G6" s="36" t="n">
         <v>3</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="103" t="s">
         <v>427</v>
       </c>
       <c r="I6" s="36" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="52" t="n">
         <v>76</v>
       </c>
@@ -7396,7 +7408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="52" t="n">
         <v>76</v>
       </c>
@@ -7425,7 +7437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="52" t="n">
         <v>76</v>
       </c>
@@ -7447,14 +7459,14 @@
       <c r="G9" s="36" t="n">
         <v>3</v>
       </c>
-      <c r="H9" s="102" t="s">
+      <c r="H9" s="103" t="s">
         <v>435</v>
       </c>
       <c r="I9" s="36" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="52" t="n">
         <v>76</v>
       </c>
@@ -7476,14 +7488,14 @@
       <c r="G10" s="36" t="n">
         <v>3</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="H10" s="103" t="s">
         <v>427</v>
       </c>
       <c r="I10" s="36" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="52" t="n">
         <v>76</v>
       </c>
@@ -7512,7 +7524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="52" t="n">
         <v>76</v>
       </c>
@@ -7541,7 +7553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="52" t="n">
         <v>76</v>
       </c>
@@ -7563,7 +7575,7 @@
       <c r="G13" s="36" t="n">
         <v>3</v>
       </c>
-      <c r="H13" s="102" t="s">
+      <c r="H13" s="103" t="s">
         <v>435</v>
       </c>
       <c r="I13" s="36" t="n">
@@ -7590,20 +7602,20 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G18:G19 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H2:H13 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.8825910931174"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="81.7327935222672"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.5263157894737"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="83.1255060728745"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.9919028340081"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="105.404858299595"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="107.226720647773"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="105.404858299595"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="107.226720647773"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="31.0647773279352"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
@@ -7787,27 +7799,27 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="G18:G19 A7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="H2:H13 A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="131.327935222672"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="133.789473684211"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="101.761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="83.8744939271255"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="122.651821862348"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="43.5991902834008"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="52.8097165991903"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="43.5991902834008"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="36.5263157894737"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="56.7732793522267"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="71.3400809716599"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="103.692307692308"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="85.3724696356275"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="124.793522267206"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="44.2388663967611"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="53.668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="44.2388663967611"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="57.8461538461538"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="72.6275303643725"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="38.8825910931174"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="39.5263157894737"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="37.17004048583"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
@@ -8271,7 +8283,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="G18:G19 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="H2:H13 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8282,14 +8294,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="41.9919028340081"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="43.5991902834008"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="30.5303643724696"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="58.914979757085"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="44.2388663967611"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="59.8785425101215"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="31.0647773279352"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -8416,17 +8428,17 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="1" sqref="G18:G19 F10"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="1" sqref="H2:H13 F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.7327935222672"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="121.473684210526"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.1255060728745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="123.615384615385"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="95.7651821862348"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="177.708502024292"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="97.4777327935223"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="180.923076923077"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -8688,20 +8700,20 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="1" sqref="G18:G19 J3"/>
+      <selection pane="topLeft" activeCell="J3" activeCellId="1" sqref="H2:H13 J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="59" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="43.17004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="95.7651821862348"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="87.5141700404858"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="59" width="119.546558704453"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="127.259109311741"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="43.919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="97.4777327935223"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="89.1214574898785"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="59" width="121.793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="129.506072874494"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="59" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="59" width="36.5263157894737"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="72.0890688259109"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="59" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="73.3765182186235"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="59" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="59" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="59" width="13.3886639676113"/>
@@ -9277,26 +9289,26 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="G18:G19 D3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="H2:H13 D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.5991902834008"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.919028340081"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.0931174089069"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="88.6963562753036"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.9919028340081"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.2388663967611"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="58.0566801619433"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.2388663967611"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.5627530364373"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="55.0607287449393"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="90.1943319838057"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.9878542510121"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="59.0242914979757"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="37.17004048583"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="36.5263157894737"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="30.1012145748988"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="31.0647773279352"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="37.17004048583"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1019" min="18" style="0" width="9.10526315789474"/>
@@ -9614,24 +9626,24 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="G18:G19 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="H2:H13 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="59.7732793522267"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="60.8421052631579"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.2064777327935"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.6315789473684"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.5991902834008"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="106.582995951417"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="44.2388663967611"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="108.51012145749"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="37.17004048583"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="36.5263157894737"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="33.1012145748988"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="33.7408906882591"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -9830,20 +9842,20 @@
   </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18:G19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G18" activeCellId="1" sqref="H2:H13 G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="102.728744939271"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.0283400809717"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.5303643724696"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="100.906882591093"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="47.7732793522267"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="104.546558704453"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.4574898785425"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="102.728744939271"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="48.6315789473684"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>

--- a/Projects/CCNAYARMX/Data/CCNayarTemplate2020v1.1.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplate2020v1.1.xlsx
@@ -115,6 +115,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$86</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$86</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$86</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$86</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1768,7 +1769,7 @@
     <t xml:space="preserve">¿Hay un enfriador competencia antes que el de CC?,¿El producto del enfriador de competencia está visible desde el marco de la entrada?,¿Hay enfriador del cliente antes que el de CC?</t>
   </si>
   <si>
-    <t xml:space="preserve">5,6,7</t>
+    <t xml:space="preserve">5,7</t>
   </si>
   <si>
     <t xml:space="preserve">survey_question_fk</t>
@@ -2306,6 +2307,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFED7D31"/>
+        <bgColor rgb="FFFF8080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF808080"/>
         <bgColor rgb="FF969696"/>
       </patternFill>
@@ -2320,12 +2327,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF993300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFED7D31"/>
-        <bgColor rgb="FFFF8080"/>
       </patternFill>
     </fill>
   </fills>
@@ -2468,7 +2469,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2753,6 +2754,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2793,11 +2798,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="5" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="6" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="5" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="6" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2825,23 +2830,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2877,11 +2882,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2972,21 +2977,21 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="E73" activeCellId="1" sqref="H2:H13 E73"/>
+      <selection pane="bottomLeft" activeCell="E73" activeCellId="0" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="87.1943319838057"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.4898785425101"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.2429149797571"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="107.226720647773"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="44.2388663967611"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="208.773279352227"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="87.9433198380567"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.8097165991903"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.4574898785425"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="108.19028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="44.5627530364373"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="210.704453441296"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.7449392712551"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.7125506072875"/>
   </cols>
@@ -5352,30 +5357,30 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="1" sqref="H2:H13 A10"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.2388663967611"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.3481781376518"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.4574898785425"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.5627530364373"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.6720647773279"/>
     <col collapsed="false" hidden="false" max="1017" min="5" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="77" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5383,13 +5388,13 @@
       <c r="A2" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="78" t="s">
         <v>134</v>
       </c>
     </row>
@@ -5397,13 +5402,13 @@
       <c r="A3" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="78" t="s">
         <v>134</v>
       </c>
     </row>
@@ -5411,13 +5416,13 @@
       <c r="A4" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="79" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="78" t="s">
         <v>134</v>
       </c>
     </row>
@@ -5425,13 +5430,13 @@
       <c r="A5" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="78" t="s">
         <v>134</v>
       </c>
     </row>
@@ -5454,37 +5459,37 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="1" sqref="H2:H13 E18"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.3481781376518"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.4574898785425"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.2388663967611"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="34.3846153846154"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.5627530364373"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="34.5991902834008"/>
     <col collapsed="false" hidden="false" max="1019" min="7" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="77" t="s">
         <v>347</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="77" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5492,13 +5497,13 @@
       <c r="A2" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="78" t="s">
         <v>133</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -5512,13 +5517,13 @@
       <c r="A3" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="78" t="s">
         <v>133</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -5532,13 +5537,13 @@
       <c r="A4" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="78" t="s">
         <v>133</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -5552,13 +5557,13 @@
       <c r="A5" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="78" t="s">
         <v>133</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -5572,13 +5577,13 @@
       <c r="A6" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="81" t="s">
         <v>351</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -5592,13 +5597,13 @@
       <c r="A7" s="4" t="n">
         <v>1.5</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="80" t="s">
+      <c r="D7" s="81" t="s">
         <v>351</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -5612,13 +5617,13 @@
       <c r="A8" s="4" t="n">
         <v>1.5</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="80" t="s">
+      <c r="D8" s="81" t="s">
         <v>351</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -5632,13 +5637,13 @@
       <c r="A9" s="4" t="n">
         <v>0.75</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="80" t="s">
+      <c r="D9" s="81" t="s">
         <v>351</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -5652,13 +5657,13 @@
       <c r="A10" s="4" t="n">
         <v>1.5</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="79" t="s">
         <v>158</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="D10" s="80" t="s">
+      <c r="D10" s="81" t="s">
         <v>351</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -5672,13 +5677,13 @@
       <c r="A11" s="4" t="n">
         <v>0.75</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="79" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="81" t="s">
         <v>351</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -5692,10 +5697,10 @@
       <c r="A12" s="28" t="n">
         <v>5</v>
       </c>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="C12" s="77" t="s">
+      <c r="C12" s="78" t="s">
         <v>134</v>
       </c>
       <c r="D12" s="44" t="s">
@@ -5712,10 +5717,10 @@
       <c r="A13" s="28" t="n">
         <v>2.5</v>
       </c>
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="77" t="s">
+      <c r="C13" s="78" t="s">
         <v>134</v>
       </c>
       <c r="D13" s="44" t="s">
@@ -5747,20 +5752,20 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="H2:H13 D3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="59" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="97.4777327935223"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="39.5263157894737"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="86.336032388664"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="58.3805668016194"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="59" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="35.4574898785425"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="59" width="71.8785425101215"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="98.336032388664"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="39.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="87.0890688259109"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="58.8097165991903"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="59" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="59" width="72.5182186234818"/>
     <col collapsed="false" hidden="false" max="1017" min="12" style="59" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
   </cols>
@@ -5784,10 +5789,10 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="82" t="s">
         <v>353</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="83" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -5816,17 +5821,17 @@
       <c r="E2" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="84" t="s">
+      <c r="G2" s="85" t="s">
         <v>234</v>
       </c>
       <c r="H2" s="0"/>
-      <c r="I2" s="83" t="s">
+      <c r="I2" s="84" t="s">
         <v>219</v>
       </c>
-      <c r="J2" s="83" t="s">
+      <c r="J2" s="84" t="s">
         <v>356</v>
       </c>
       <c r="K2" s="31" t="s">
@@ -5849,17 +5854,17 @@
       <c r="E3" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="83" t="s">
+      <c r="F3" s="84" t="s">
         <v>358</v>
       </c>
-      <c r="G3" s="83"/>
-      <c r="H3" s="85" t="s">
+      <c r="G3" s="84"/>
+      <c r="H3" s="86" t="s">
         <v>359</v>
       </c>
-      <c r="I3" s="83" t="s">
+      <c r="I3" s="84" t="s">
         <v>219</v>
       </c>
-      <c r="J3" s="83" t="s">
+      <c r="J3" s="84" t="s">
         <v>360</v>
       </c>
       <c r="K3" s="31" t="s">
@@ -5885,61 +5890,61 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="H2:H13 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.3441295546559"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="122.542510121458"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="85.3724696356275"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.8785425101215"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="123.615384615385"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="86.1255060728745"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="39.5263157894737"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="39.8502024291498"/>
     <col collapsed="false" hidden="false" max="10" min="9" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="71.1255060728745"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="71.7692307692308"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="86" t="s">
+      <c r="F1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="86" t="s">
+      <c r="G1" s="87" t="s">
         <v>361</v>
       </c>
-      <c r="H1" s="86" t="s">
+      <c r="H1" s="87" t="s">
         <v>362</v>
       </c>
-      <c r="I1" s="87" t="s">
+      <c r="I1" s="88" t="s">
         <v>363</v>
       </c>
-      <c r="J1" s="87" t="s">
+      <c r="J1" s="88" t="s">
         <v>364</v>
       </c>
-      <c r="K1" s="87" t="s">
+      <c r="K1" s="88" t="s">
         <v>365</v>
       </c>
-      <c r="L1" s="87" t="s">
+      <c r="L1" s="88" t="s">
         <v>366</v>
       </c>
-      <c r="M1" s="87" t="s">
+      <c r="M1" s="88" t="s">
         <v>367</v>
       </c>
     </row>
@@ -6088,21 +6093,21 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="1" sqref="H2:H13 E9"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.8097165991903"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="57.8461538461538"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="58.3805668016194"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="152.429149797571"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="121.793522267206"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="153.821862348178"/>
+    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="122.866396761134"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="33.5263157894737"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.6761133603239"/>
@@ -6269,7 +6274,7 @@
       <c r="D5" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="78"/>
+      <c r="E5" s="79"/>
       <c r="F5" s="16" t="s">
         <v>14</v>
       </c>
@@ -6509,19 +6514,19 @@
       <c r="C12" s="29" t="n">
         <v>20</v>
       </c>
-      <c r="D12" s="77" t="s">
+      <c r="D12" s="78" t="s">
         <v>132</v>
       </c>
       <c r="E12" s="29"/>
-      <c r="F12" s="77" t="s">
+      <c r="F12" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="77" t="s">
+      <c r="G12" s="78" t="s">
         <v>393</v>
       </c>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77" t="s">
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78" t="s">
         <v>388</v>
       </c>
       <c r="K12" s="29"/>
@@ -6534,7 +6539,7 @@
       <c r="A13" s="29" t="n">
         <v>64</v>
       </c>
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="78" t="s">
         <v>173</v>
       </c>
       <c r="C13" s="29" t="n">
@@ -6544,7 +6549,7 @@
         <v>174</v>
       </c>
       <c r="E13" s="29"/>
-      <c r="F13" s="77" t="s">
+      <c r="F13" s="78" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -6552,7 +6557,7 @@
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="77" t="s">
+      <c r="J13" s="78" t="s">
         <v>388</v>
       </c>
       <c r="K13" s="29"/>
@@ -6571,19 +6576,19 @@
       <c r="C14" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="D14" s="77" t="s">
+      <c r="D14" s="78" t="s">
         <v>173</v>
       </c>
       <c r="E14" s="29"/>
-      <c r="F14" s="77" t="s">
+      <c r="F14" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="77" t="s">
+      <c r="G14" s="78" t="s">
         <v>395</v>
       </c>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77" t="s">
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78" t="s">
         <v>388</v>
       </c>
       <c r="K14" s="29"/>
@@ -6593,33 +6598,33 @@
       <c r="O14" s="29"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="88" t="n">
+      <c r="A15" s="89" t="n">
         <v>79</v>
       </c>
-      <c r="B15" s="89"/>
-      <c r="C15" s="90" t="n">
+      <c r="B15" s="90"/>
+      <c r="C15" s="91" t="n">
         <v>110</v>
       </c>
-      <c r="D15" s="91" t="s">
+      <c r="D15" s="92" t="s">
         <v>127</v>
       </c>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92" t="s">
+      <c r="E15" s="93"/>
+      <c r="F15" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="93" t="s">
+      <c r="G15" s="94" t="s">
         <v>396</v>
       </c>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="92" t="s">
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="93" t="s">
         <v>388</v>
       </c>
-      <c r="K15" s="92"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="92"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6640,7 +6645,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="1" sqref="H2:H13 F12"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6700,48 +6705,48 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="94" t="n">
+      <c r="A2" s="95" t="n">
         <v>35</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="97" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="97" t="s">
+      <c r="D2" s="98" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="97" t="s">
+      <c r="E2" s="98" t="s">
         <v>234</v>
       </c>
-      <c r="F2" s="96" t="s">
+      <c r="F2" s="97" t="s">
         <v>397</v>
       </c>
-      <c r="G2" s="96" t="s">
+      <c r="G2" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="97" t="s">
         <v>223</v>
       </c>
-      <c r="I2" s="96"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="96" t="s">
+      <c r="I2" s="97"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="97" t="s">
         <v>219</v>
       </c>
-      <c r="L2" s="98" t="s">
+      <c r="L2" s="99" t="s">
         <v>224</v>
       </c>
-      <c r="M2" s="98" t="s">
+      <c r="M2" s="99" t="s">
         <v>225</v>
       </c>
       <c r="N2" s="44" t="s">
         <v>398</v>
       </c>
-      <c r="O2" s="98" t="s">
+      <c r="O2" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="98" t="s">
+      <c r="P2" s="99" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6764,19 +6769,19 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="H2:H13 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="67.2712550607288"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="67.8056680161943"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="71.1255060728745"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="61.2712550607287"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.2753036437247"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="76.3765182186235"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="88.4817813765182"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="71.7692307692308"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="61.7004048582996"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.5951417004049"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="77.0202429149798"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="89.2307692307692"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -6893,15 +6898,15 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="H2:H13 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="44.2388663967611"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="44.5627530364373"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
@@ -6939,26 +6944,26 @@
       <c r="A2" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="78" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="56"/>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="77" t="s">
+      <c r="E2" s="78" t="s">
         <v>413</v>
       </c>
-      <c r="F2" s="77" t="s">
+      <c r="F2" s="78" t="s">
         <v>414</v>
       </c>
-      <c r="G2" s="77" t="s">
+      <c r="G2" s="78" t="s">
         <v>225</v>
       </c>
-      <c r="H2" s="77" t="s">
+      <c r="H2" s="78" t="s">
         <v>415</v>
       </c>
-      <c r="I2" s="77" t="s">
+      <c r="I2" s="78" t="s">
         <v>416</v>
       </c>
     </row>
@@ -6981,7 +6986,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="H2:H13 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6989,33 +6994,33 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="3" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="62.3441295546559"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="30.5303643724696"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="62.8785425101215"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="100" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="101" t="s">
         <v>417</v>
       </c>
-      <c r="E1" s="99"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="101"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="102"/>
     </row>
     <row r="2" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="52" t="n">
@@ -7118,7 +7123,7 @@
       <c r="F9" s="36"/>
       <c r="G9" s="36"/>
       <c r="H9" s="36"/>
-      <c r="I9" s="102"/>
+      <c r="I9" s="103"/>
       <c r="J9" s="36"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7166,7 +7171,7 @@
       <c r="F13" s="36"/>
       <c r="G13" s="36"/>
       <c r="H13" s="36"/>
-      <c r="I13" s="102"/>
+      <c r="I13" s="103"/>
       <c r="J13" s="36"/>
     </row>
   </sheetData>
@@ -7188,49 +7193,49 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H13"/>
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.9919028340081"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="52.3805668016194"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="56.5587044534413"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="51.8461538461539"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="157.68016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="56.9878542510121"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="44.8825910931174"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="52.2753036437247"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="159.072874493927"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="212.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="100" t="s">
+      <c r="C1" s="101" t="s">
         <v>419</v>
       </c>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="100" t="s">
         <v>420</v>
       </c>
-      <c r="E1" s="101" t="s">
+      <c r="E1" s="102" t="s">
         <v>421</v>
       </c>
-      <c r="F1" s="99" t="s">
+      <c r="F1" s="100" t="s">
         <v>296</v>
       </c>
-      <c r="G1" s="101" t="s">
+      <c r="G1" s="102" t="s">
         <v>422</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="100" t="s">
         <v>423</v>
       </c>
-      <c r="I1" s="101" t="s">
+      <c r="I1" s="102" t="s">
         <v>424</v>
       </c>
     </row>
@@ -7256,7 +7261,7 @@
       <c r="G2" s="36" t="n">
         <v>3</v>
       </c>
-      <c r="H2" s="103" t="s">
+      <c r="H2" s="104" t="s">
         <v>427</v>
       </c>
       <c r="I2" s="36" t="n">
@@ -7343,7 +7348,7 @@
       <c r="G5" s="36" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="103" t="s">
+      <c r="H5" s="104" t="s">
         <v>435</v>
       </c>
       <c r="I5" s="36" t="n">
@@ -7372,7 +7377,7 @@
       <c r="G6" s="36" t="n">
         <v>3</v>
       </c>
-      <c r="H6" s="103" t="s">
+      <c r="H6" s="104" t="s">
         <v>427</v>
       </c>
       <c r="I6" s="36" t="n">
@@ -7459,7 +7464,7 @@
       <c r="G9" s="36" t="n">
         <v>3</v>
       </c>
-      <c r="H9" s="103" t="s">
+      <c r="H9" s="104" t="s">
         <v>435</v>
       </c>
       <c r="I9" s="36" t="n">
@@ -7488,7 +7493,7 @@
       <c r="G10" s="36" t="n">
         <v>3</v>
       </c>
-      <c r="H10" s="103" t="s">
+      <c r="H10" s="104" t="s">
         <v>427</v>
       </c>
       <c r="I10" s="36" t="n">
@@ -7575,7 +7580,7 @@
       <c r="G13" s="36" t="n">
         <v>3</v>
       </c>
-      <c r="H13" s="103" t="s">
+      <c r="H13" s="104" t="s">
         <v>435</v>
       </c>
       <c r="I13" s="36" t="n">
@@ -7602,20 +7607,20 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H2:H13 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.5263157894737"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="83.1255060728745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="83.8744939271255"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="107.226720647773"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.0607287449393"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="108.19028340081"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="107.226720647773"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="108.19028340081"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="31.3846153846154"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
@@ -7799,27 +7804,27 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="H2:H13 A7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="133.789473684211"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="134.971659919028"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="103.692307692308"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="85.3724696356275"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="124.793522267206"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="44.2388663967611"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="53.668016194332"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="44.2388663967611"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="37.17004048583"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="57.8461538461538"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="72.6275303643725"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="104.546558704453"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="86.1255060728745"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="125.866396761134"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="44.5627530364373"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="54.0931174089069"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="44.5627530364373"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="58.3805668016194"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="73.2712550607288"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="39.5263157894737"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="39.8502024291498"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="37.4898785425101"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
@@ -8283,7 +8288,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="H2:H13 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8294,14 +8299,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="44.2388663967611"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="33.2064777327935"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="38.3481781376518"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="59.8785425101215"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="43.0607287449393"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="44.5627530364373"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="60.417004048583"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="31.3846153846154"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -8428,17 +8433,17 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="1" sqref="H2:H13 F10"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.1255060728745"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="123.615384615385"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.8744939271255"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="124.793522267206"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="97.4777327935223"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="180.923076923077"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="98.336032388664"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="182.53036437247"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -8700,20 +8705,20 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="1" sqref="H2:H13 J3"/>
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="59" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="43.919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="97.4777327935223"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="89.1214574898785"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="59" width="121.793522267206"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="129.506072874494"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="44.2388663967611"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="98.336032388664"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="89.8744939271255"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="59" width="122.866396761134"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="130.684210526316"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="59" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="59" width="37.17004048583"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="73.3765182186235"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="59" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="74.0202429149798"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="59" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="59" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="59" width="13.3886639676113"/>
@@ -9289,26 +9294,26 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="H2:H13 D3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.2388663967611"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.5627530364373"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="55.0607287449393"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="90.1943319838057"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="59.0242914979757"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.5627530364373"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.9878542510121"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="55.5951417004049"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="91.0526315789474"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.0607287449393"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="59.4493927125506"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="37.4898785425101"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="37.17004048583"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="30.5303643724696"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="31.3846153846154"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="37.4898785425101"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1019" min="18" style="0" width="9.10526315789474"/>
@@ -9625,25 +9630,25 @@
   </sheetPr>
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="H2:H13 A4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="60.8421052631579"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.3805668016194"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.5263157894737"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.0607287449393"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="44.2388663967611"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="108.51012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="44.5627530364373"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="109.473684210526"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="37.4898785425101"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="37.17004048583"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="34.0647773279352"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -9782,7 +9787,7 @@
       </c>
       <c r="P3" s="56"/>
     </row>
-    <row r="4" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="176.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="69" t="n">
         <v>5</v>
       </c>
@@ -9807,7 +9812,7 @@
       <c r="H4" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="I4" s="70" t="s">
+      <c r="I4" s="71" t="s">
         <v>331</v>
       </c>
       <c r="J4" s="32"/>
@@ -9843,19 +9848,19 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="1" sqref="H2:H13 G18"/>
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.2753036437247"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="104.546558704453"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.4574898785425"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.9595141700405"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="102.728744939271"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="48.6315789473684"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.5951417004049"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="105.51012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.1740890688259"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="103.692307692308"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="49.0607287449393"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -9889,13 +9894,13 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="71" t="n">
+      <c r="A2" s="72" t="n">
         <v>40</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="74" t="s">
         <v>135</v>
       </c>
       <c r="D2" s="64"/>
@@ -9909,18 +9914,18 @@
       <c r="H2" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="75" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="71" t="n">
+      <c r="A3" s="72" t="n">
         <v>41</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="74" t="s">
         <v>139</v>
       </c>
       <c r="D3" s="64"/>
@@ -9936,18 +9941,18 @@
       <c r="H3" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="I3" s="74" t="s">
+      <c r="I3" s="75" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="71" t="n">
+      <c r="A4" s="72" t="n">
         <v>42</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="74" t="s">
         <v>142</v>
       </c>
       <c r="D4" s="52"/>
@@ -9963,15 +9968,15 @@
       <c r="H4" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="I4" s="74" t="s">
+      <c r="I4" s="75" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="71" t="n">
+      <c r="A5" s="72" t="n">
         <v>43</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="76" t="s">
         <v>133</v>
       </c>
       <c r="C5" s="64" t="s">
@@ -9992,18 +9997,18 @@
       <c r="H5" s="52" t="s">
         <v>345</v>
       </c>
-      <c r="I5" s="74" t="s">
+      <c r="I5" s="75" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="71" t="n">
+      <c r="A6" s="72" t="n">
         <v>44</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="74" t="s">
         <v>148</v>
       </c>
       <c r="D6" s="64"/>
@@ -10017,18 +10022,18 @@
       <c r="H6" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="I6" s="74" t="s">
+      <c r="I6" s="75" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="71" t="n">
+      <c r="A7" s="72" t="n">
         <v>46</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="74" t="s">
         <v>152</v>
       </c>
       <c r="D7" s="64"/>
@@ -10042,18 +10047,18 @@
       <c r="H7" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="74" t="s">
+      <c r="I7" s="75" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="71" t="n">
+      <c r="A8" s="72" t="n">
         <v>47</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="74" t="s">
         <v>154</v>
       </c>
       <c r="D8" s="52"/>
@@ -10069,15 +10074,15 @@
       <c r="H8" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="74" t="s">
+      <c r="I8" s="75" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="71" t="n">
+      <c r="A9" s="72" t="n">
         <v>48</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="76" t="s">
         <v>151</v>
       </c>
       <c r="C9" s="64" t="s">
@@ -10098,18 +10103,18 @@
       <c r="H9" s="52" t="s">
         <v>345</v>
       </c>
-      <c r="I9" s="74" t="s">
+      <c r="I9" s="75" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="71" t="n">
+      <c r="A10" s="72" t="n">
         <v>49</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="74" t="s">
         <v>155</v>
       </c>
       <c r="D10" s="52"/>
@@ -10125,18 +10130,18 @@
       <c r="H10" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="I10" s="74" t="s">
+      <c r="I10" s="75" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="71" t="n">
+      <c r="A11" s="72" t="n">
         <v>50</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="74" t="s">
         <v>157</v>
       </c>
       <c r="D11" s="64"/>
@@ -10150,18 +10155,18 @@
       <c r="H11" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="I11" s="74" t="s">
+      <c r="I11" s="75" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="71" t="n">
+      <c r="A12" s="72" t="n">
         <v>52</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="74" t="s">
         <v>160</v>
       </c>
       <c r="D12" s="64"/>
@@ -10175,18 +10180,18 @@
       <c r="H12" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="I12" s="74" t="s">
+      <c r="I12" s="75" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="71" t="n">
+      <c r="A13" s="72" t="n">
         <v>53</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="74" t="s">
         <v>162</v>
       </c>
       <c r="D13" s="64"/>
@@ -10202,15 +10207,15 @@
       <c r="H13" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="I13" s="74" t="s">
+      <c r="I13" s="75" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="71" t="n">
+      <c r="A14" s="72" t="n">
         <v>54</v>
       </c>
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="76" t="s">
         <v>158</v>
       </c>
       <c r="C14" s="64" t="s">
@@ -10231,18 +10236,18 @@
       <c r="H14" s="52" t="s">
         <v>345</v>
       </c>
-      <c r="I14" s="74" t="s">
+      <c r="I14" s="75" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="71" t="n">
+      <c r="A15" s="72" t="n">
         <v>55</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="74" t="s">
         <v>163</v>
       </c>
       <c r="D15" s="64"/>
@@ -10258,18 +10263,18 @@
       <c r="H15" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="I15" s="74" t="s">
+      <c r="I15" s="75" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="71" t="n">
+      <c r="A16" s="72" t="n">
         <v>56</v>
       </c>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="74" t="s">
         <v>165</v>
       </c>
       <c r="D16" s="64"/>
@@ -10283,18 +10288,18 @@
       <c r="H16" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="I16" s="74" t="s">
+      <c r="I16" s="75" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="71" t="n">
+      <c r="A17" s="72" t="n">
         <v>58</v>
       </c>
       <c r="B17" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="74" t="s">
         <v>167</v>
       </c>
       <c r="D17" s="64"/>
@@ -10308,18 +10313,18 @@
       <c r="H17" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="I17" s="74" t="s">
+      <c r="I17" s="75" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="71" t="n">
+      <c r="A18" s="72" t="n">
         <v>59</v>
       </c>
       <c r="B18" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="74" t="s">
         <v>169</v>
       </c>
       <c r="D18" s="64"/>
@@ -10335,18 +10340,18 @@
       <c r="H18" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="I18" s="74" t="s">
+      <c r="I18" s="75" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="71" t="n">
+      <c r="A19" s="72" t="n">
         <v>60</v>
       </c>
       <c r="B19" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="74" t="s">
         <v>170</v>
       </c>
       <c r="D19" s="64"/>
@@ -10362,12 +10367,12 @@
       <c r="H19" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="I19" s="74" t="s">
+      <c r="I19" s="75" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="71" t="n">
+      <c r="A20" s="72" t="n">
         <v>61</v>
       </c>
       <c r="B20" s="52" t="s">
@@ -10391,18 +10396,18 @@
       <c r="H20" s="52" t="s">
         <v>345</v>
       </c>
-      <c r="I20" s="74" t="s">
+      <c r="I20" s="75" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="71" t="n">
+      <c r="A21" s="72" t="n">
         <v>62</v>
       </c>
       <c r="B21" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="C21" s="73" t="s">
+      <c r="C21" s="74" t="s">
         <v>172</v>
       </c>
       <c r="D21" s="64"/>
@@ -10416,7 +10421,7 @@
       <c r="H21" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="I21" s="74" t="s">
+      <c r="I21" s="75" t="s">
         <v>339</v>
       </c>
     </row>

--- a/Projects/CCNAYARMX/Data/CCNayarTemplate2020v1.1.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplate2020v1.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="18"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -116,6 +116,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$86</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$86</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$86</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$86</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -127,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="437">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -1905,6 +1906,9 @@
   </si>
   <si>
     <t xml:space="preserve">composition_based_result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_same_as_result</t>
   </si>
   <si>
     <t xml:space="preserve">Component aggregation</t>
@@ -2983,15 +2987,15 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="87.9433198380567"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.8097165991903"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.4574898785425"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="108.19028340081"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="210.704453441296"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="88.6963562753036"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="109.153846153846"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="44.8825910931174"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="212.631578947368"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="31.0647773279352"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.7125506072875"/>
   </cols>
@@ -5363,9 +5367,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.8825910931174"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.9919028340081"/>
     <col collapsed="false" hidden="false" max="1017" min="5" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
   </cols>
@@ -5465,10 +5469,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="34.5991902834008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.9919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.8825910931174"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="34.8137651821862"/>
     <col collapsed="false" hidden="false" max="1019" min="7" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="8.78542510121457"/>
   </cols>
@@ -5758,14 +5762,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="59" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="98.336032388664"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="39.8502024291498"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="87.0890688259109"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="58.8097165991903"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="59" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="35.6720647773279"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="59" width="72.5182186234818"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="99.1902834008097"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="40.17004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="87.8380566801619"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="59.2348178137652"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="59" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="35.9919028340081"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="59" width="73.1619433198381"/>
     <col collapsed="false" hidden="false" max="1017" min="12" style="59" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
   </cols>
@@ -5896,14 +5900,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.8785425101215"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="123.615384615385"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="86.1255060728745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="124.793522267206"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="86.8744939271255"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="48.417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="39.8502024291498"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="48.8461538461539"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="40.17004048583"/>
     <col collapsed="false" hidden="false" max="10" min="9" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="71.7692307692308"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="72.4129554655871"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -6090,28 +6094,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.2388663967611"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="58.3805668016194"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="58.8097165991903"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="153.821862348178"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="122.866396761134"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="48.417004048583"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="33.5263157894737"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="155.214574898785"/>
+    <col collapsed="false" hidden="false" max="11" min="8" style="0" width="123.935222672065"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="48.8461538461539"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6152,12 +6156,15 @@
         <v>379</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>266</v>
       </c>
     </row>
@@ -6179,23 +6186,24 @@
         <v>14</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
-      <c r="J2" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="K2" s="15"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="3" t="s">
+        <v>382</v>
+      </c>
       <c r="L2" s="15"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3" t="s">
+      <c r="M2" s="15"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="7"/>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="7"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="n">
         <v>6</v>
       </c>
@@ -6213,20 +6221,21 @@
         <v>14</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
-      <c r="J3" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="K3" s="15"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="3" t="s">
+        <v>382</v>
+      </c>
       <c r="L3" s="15"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10" t="s">
+      <c r="M3" s="15"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="125" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="29" t="n">
@@ -6246,20 +6255,21 @@
         <v>14</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
-      <c r="J4" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="K4" s="3"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="3" t="s">
+        <v>382</v>
+      </c>
       <c r="L4" s="3"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10" t="s">
+      <c r="M4" s="3"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="29" t="n">
@@ -6279,26 +6289,27 @@
         <v>14</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
-      <c r="J5" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="L5" s="10" t="n">
+      <c r="J5" s="16"/>
+      <c r="K5" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="M5" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="N5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="O5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="29" t="n">
@@ -6318,26 +6329,27 @@
         <v>14</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
-      <c r="J6" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="L6" s="10" t="n">
+      <c r="J6" s="16"/>
+      <c r="K6" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="M6" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="N6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="O6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
@@ -6357,22 +6369,25 @@
         <v>14</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H7" s="18" t="s">
         <v>340</v>
       </c>
       <c r="I7" s="18"/>
-      <c r="J7" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="K7" s="19"/>
+      <c r="J7" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>389</v>
+      </c>
       <c r="L7" s="19"/>
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
       <c r="O7" s="19"/>
-    </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P7" s="19"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="29" t="n">
         <v>37</v>
       </c>
@@ -6390,20 +6405,23 @@
         <v>14</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="K8" s="9"/>
+      <c r="J8" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>389</v>
+      </c>
       <c r="L8" s="9"/>
-      <c r="M8" s="10"/>
+      <c r="M8" s="9"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
-    </row>
-    <row r="9" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P8" s="10"/>
+    </row>
+    <row r="9" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>77</v>
       </c>
@@ -6423,18 +6441,21 @@
         <v>14</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="K9" s="4"/>
+        <v>340</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>389</v>
+      </c>
       <c r="L9" s="4"/>
-      <c r="M9" s="19"/>
+      <c r="M9" s="4"/>
       <c r="N9" s="19"/>
       <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
     </row>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
@@ -6456,20 +6477,23 @@
         <v>14</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4" t="s">
         <v>340</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="K10" s="4"/>
+        <v>340</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>389</v>
+      </c>
       <c r="L10" s="4"/>
-      <c r="M10" s="19"/>
+      <c r="M10" s="4"/>
       <c r="N10" s="19"/>
       <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
     </row>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
@@ -6491,20 +6515,23 @@
         <v>14</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="K11" s="4"/>
+        <v>340</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>389</v>
+      </c>
       <c r="L11" s="4"/>
-      <c r="M11" s="19"/>
+      <c r="M11" s="4"/>
       <c r="N11" s="19"/>
       <c r="O11" s="19"/>
-    </row>
-    <row r="12" s="30" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P11" s="19"/>
+    </row>
+    <row r="12" s="30" customFormat="true" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="29" t="n">
         <v>63</v>
       </c>
@@ -6522,20 +6549,23 @@
         <v>14</v>
       </c>
       <c r="G12" s="78" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H12" s="78"/>
       <c r="I12" s="78"/>
-      <c r="J12" s="78" t="s">
-        <v>388</v>
-      </c>
-      <c r="K12" s="29"/>
+      <c r="J12" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="K12" s="78" t="s">
+        <v>389</v>
+      </c>
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
       <c r="N12" s="29"/>
       <c r="O12" s="29"/>
-    </row>
-    <row r="13" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P12" s="29"/>
+    </row>
+    <row r="13" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="29" t="n">
         <v>64</v>
       </c>
@@ -6553,20 +6583,23 @@
         <v>14</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="78" t="s">
-        <v>388</v>
-      </c>
-      <c r="K13" s="29"/>
+      <c r="J13" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="K13" s="78" t="s">
+        <v>389</v>
+      </c>
       <c r="L13" s="29"/>
       <c r="M13" s="29"/>
       <c r="N13" s="29"/>
       <c r="O13" s="29"/>
-    </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P13" s="29"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="29" t="n">
         <v>70</v>
       </c>
@@ -6584,18 +6617,19 @@
         <v>14</v>
       </c>
       <c r="G14" s="78" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H14" s="78"/>
       <c r="I14" s="78"/>
-      <c r="J14" s="78" t="s">
-        <v>388</v>
-      </c>
-      <c r="K14" s="29"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="78" t="s">
+        <v>389</v>
+      </c>
       <c r="L14" s="29"/>
       <c r="M14" s="29"/>
       <c r="N14" s="29"/>
       <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="89" t="n">
@@ -6613,18 +6647,19 @@
         <v>14</v>
       </c>
       <c r="G15" s="94" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H15" s="94"/>
       <c r="I15" s="94"/>
-      <c r="J15" s="93" t="s">
-        <v>388</v>
-      </c>
-      <c r="K15" s="93"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="93" t="s">
+        <v>389</v>
+      </c>
       <c r="L15" s="93"/>
       <c r="M15" s="93"/>
       <c r="N15" s="93"/>
       <c r="O15" s="93"/>
+      <c r="P15" s="93"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6721,7 +6756,7 @@
         <v>234</v>
       </c>
       <c r="F2" s="97" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G2" s="97" t="s">
         <v>222</v>
@@ -6741,7 +6776,7 @@
         <v>225</v>
       </c>
       <c r="N2" s="44" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O2" s="99" t="s">
         <v>48</v>
@@ -6775,13 +6810,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="67.8056680161943"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="68.3400809716599"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="71.7692307692308"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="61.7004048582996"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.5951417004049"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="77.0202429149798"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="89.2307692307692"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="72.4129554655871"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="62.2348178137652"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.919028340081"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="77.6599190283401"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="89.9797570850202"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -6796,7 +6831,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -6805,25 +6840,25 @@
         <v>227</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>9</v>
@@ -6849,22 +6884,22 @@
         <v>130</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>224</v>
@@ -6905,8 +6940,8 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="44.5627530364373"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="44.8825910931174"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
@@ -6952,19 +6987,19 @@
         <v>16</v>
       </c>
       <c r="E2" s="78" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F2" s="78" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G2" s="78" t="s">
         <v>225</v>
       </c>
       <c r="H2" s="78" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I2" s="78" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -6994,11 +7029,11 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="3" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="62.8785425101215"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.5991902834008"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="30.7449392712551"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="63.412955465587"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -7013,7 +7048,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="101" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E1" s="100"/>
       <c r="F1" s="102"/>
@@ -7033,7 +7068,7 @@
         <v>204</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E2" s="36"/>
       <c r="F2" s="36"/>
@@ -7192,7 +7227,7 @@
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -7200,13 +7235,13 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="52.8097165991903"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="56.9878542510121"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="44.8825910931174"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="52.2753036437247"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="159.072874493927"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="53.2388663967611"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="57.5222672064777"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="45.2024291497976"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="52.7044534412956"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="160.570850202429"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7218,25 +7253,25 @@
         <v>3</v>
       </c>
       <c r="C1" s="101" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D1" s="100" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E1" s="102" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F1" s="100" t="s">
         <v>296</v>
       </c>
       <c r="G1" s="102" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H1" s="100" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="I1" s="102" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7250,19 +7285,19 @@
         <v>205</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E2" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G2" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H2" s="104" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I2" s="36" t="n">
         <v>1</v>
@@ -7279,19 +7314,19 @@
         <v>205</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E3" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G3" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="I3" s="36" t="n">
         <v>1</v>
@@ -7308,13 +7343,13 @@
         <v>205</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E4" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G4" s="36" t="n">
         <v>3</v>
@@ -7337,19 +7372,19 @@
         <v>205</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E5" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G5" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H5" s="104" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I5" s="36" t="n">
         <v>1</v>
@@ -7366,19 +7401,19 @@
         <v>205</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E6" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G6" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H6" s="104" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I6" s="36" t="n">
         <v>1</v>
@@ -7395,19 +7430,19 @@
         <v>205</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E7" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G7" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="I7" s="36" t="n">
         <v>1</v>
@@ -7424,13 +7459,13 @@
         <v>205</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E8" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G8" s="36" t="n">
         <v>3</v>
@@ -7453,19 +7488,19 @@
         <v>205</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E9" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G9" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H9" s="104" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I9" s="36" t="n">
         <v>1</v>
@@ -7482,19 +7517,19 @@
         <v>205</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E10" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G10" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H10" s="104" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I10" s="36" t="n">
         <v>1</v>
@@ -7511,19 +7546,19 @@
         <v>205</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E11" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G11" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="I11" s="36" t="n">
         <v>1</v>
@@ -7540,13 +7575,13 @@
         <v>205</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E12" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G12" s="36" t="n">
         <v>3</v>
@@ -7569,19 +7604,19 @@
         <v>205</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E13" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G13" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H13" s="104" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I13" s="36" t="n">
         <v>1</v>
@@ -7613,14 +7648,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="83.8744939271255"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.17004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="84.6234817813765"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="108.19028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.4898785425101"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="109.153846153846"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="108.19028340081"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="109.153846153846"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="31.5991902834008"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
@@ -7810,21 +7845,21 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="134.971659919028"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="136.255060728745"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="104.546558704453"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="86.1255060728745"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="125.866396761134"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="54.0931174089069"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="37.4898785425101"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="58.3805668016194"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="73.2712550607288"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="105.51012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="86.8744939271255"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="127.044534412955"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="44.8825910931174"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="54.5222672064777"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="44.8825910931174"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="37.7044534412955"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="58.8097165991903"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="73.8056680161943"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="39.8502024291498"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="40.17004048583"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="37.7044534412955"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
@@ -8299,14 +8334,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="33.5263157894737"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="60.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="43.4898785425101"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="44.8825910931174"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="60.9514170040486"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="31.5991902834008"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -8439,11 +8474,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.8744939271255"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="124.793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.6234817813765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="125.866396761134"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="98.336032388664"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="182.53036437247"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="99.1902834008097"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="184.242914979757"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -8711,14 +8746,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="59" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="44.2388663967611"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="98.336032388664"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="89.8744939271255"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="59" width="122.866396761134"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="130.684210526316"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="44.5627530364373"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="99.1902834008097"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="90.7287449392713"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="59" width="123.935222672065"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="131.862348178138"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="59" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="59" width="37.4898785425101"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="74.0202429149798"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="59" width="37.7044534412955"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="74.6599190283401"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="59" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="59" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="59" width="13.3886639676113"/>
@@ -9300,20 +9335,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="55.5951417004049"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="91.0526315789474"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="59.4493927125506"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.8825910931174"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.0242914979757"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="91.8016194331984"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.4898785425101"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.8461538461539"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="59.9878542510121"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="37.7044534412955"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="37.4898785425101"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="30.7449392712551"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="37.7044534412955"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="31.5991902834008"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="37.7044534412955"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1019" min="18" style="0" width="9.10526315789474"/>
@@ -9636,19 +9671,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.3805668016194"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.8056680161943"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.8502024291498"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.0607287449393"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.4898785425101"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="109.473684210526"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="44.8825910931174"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="110.441295546559"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="37.7044534412955"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="37.4898785425101"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="34.0647773279352"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="37.7044534412955"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="34.3846153846154"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -9854,13 +9889,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.5951417004049"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="105.51012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.6720647773279"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="103.692307692308"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="49.0607287449393"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="106.477732793522"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.9919028340081"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="104.546558704453"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="49.4898785425101"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
